--- a/Oregon/Overlays/ORov_Overlay Schema Mapping to WaDE.xlsx
+++ b/Oregon/Overlays/ORov_Overlay Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Oregon\Overlays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93CBF1A-374F-4549-BA21-DF24DC02A1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA2E278-12DE-42DA-AFCC-5E6C9531E6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" activeTab="2" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="175">
   <si>
     <t>Name</t>
   </si>
@@ -480,9 +480,6 @@
     <t>Administrative Basins</t>
   </si>
   <si>
-    <t>https://www.oregon.gov/OWRD/access_Data/Pages/Data.aspx</t>
-  </si>
-  <si>
     <t>No obvious publication date so I just used the updated date, no effective date so I used 10/7/1993 since that was the date of the rule being certified</t>
   </si>
   <si>
@@ -510,25 +507,78 @@
     <t>(blank)</t>
   </si>
   <si>
-    <t>oregon-water-resources-department-owrd-administrative-basins-SHP.shp</t>
-  </si>
-  <si>
-    <t>BASIN_NAME</t>
-  </si>
-  <si>
-    <t>BASIN_NUM</t>
-  </si>
-  <si>
     <t>ORov_RU + ReportingUnitNativeID</t>
-  </si>
-  <si>
-    <t>"administrative rules which establish water management policies and objectives and which govern the appropriation and use of the surface and ground water"</t>
   </si>
   <si>
     <t>ORov_RO + RegulatoryOverlayNativeID</t>
   </si>
   <si>
     <t>https://www.oregon.gov/owrd/pages/index.aspx</t>
+  </si>
+  <si>
+    <t>Administrative Basins: https://www.oregon.gov/OWRD/access_Data/Pages/Data.aspx</t>
+  </si>
+  <si>
+    <t>BASIN_NAME,
+gwra_area_</t>
+  </si>
+  <si>
+    <t>-
+gwra_statu</t>
+  </si>
+  <si>
+    <t>-
+effective_</t>
+  </si>
+  <si>
+    <t>-
+source_lin</t>
+  </si>
+  <si>
+    <t>10/7/1993
+-</t>
+  </si>
+  <si>
+    <t>Active
+-</t>
+  </si>
+  <si>
+    <t>BASIN_NUM
+-</t>
+  </si>
+  <si>
+    <t>Administrative Basins,
+-</t>
+  </si>
+  <si>
+    <t>-
+Auto create id for RGAs</t>
+  </si>
+  <si>
+    <t>"administrative rules which establish water management policies and objectives and which govern the appropriation and use of the surface and ground water"
+"To protect existing water rights by preventing excessive groundwater declines, restoring aquifer stability, and preserving aquifers with limited storage capacity for designated high public value uses. "</t>
+  </si>
+  <si>
+    <t>Administrative Basins,
+Groundwater Restricted Areas</t>
+  </si>
+  <si>
+    <t>-
+Groundwater Restricted Areas</t>
+  </si>
+  <si>
+    <t>Surface Water and Groundwater,
+Groundwater</t>
+  </si>
+  <si>
+    <t>Groundwater Restricted Areas:  https://geohub.oregon.gov/datasets/oregon-geo::groundwater-restricted-areas/about</t>
+  </si>
+  <si>
+    <t>9/22/2021,
+07/23/2023</t>
+  </si>
+  <si>
+    <t>https://www.oregon.gov/owrd/programs/administrativebasins/pages/default.aspx</t>
   </si>
 </sst>
 </file>
@@ -687,13 +737,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -866,7 +917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1221,20 +1272,17 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1553,9 +1601,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1614,12 +1662,15 @@
         <v>33</v>
       </c>
       <c r="B5" s="120" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C5" s="70"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="71"/>
+      <c r="B6" t="s">
+        <v>172</v>
+      </c>
       <c r="C6" s="70"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1631,14 +1682,14 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" s="70"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="72"/>
       <c r="B9" s="120" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="70"/>
     </row>
@@ -1661,7 +1712,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{EB503099-8C1B-4E2F-A2E8-C2066C4F2B13}"/>
+    <hyperlink ref="B5" r:id="rId1" display="https://www.oregon.gov/OWRD/access_Data/Pages/Data.aspx" xr:uid="{EB503099-8C1B-4E2F-A2E8-C2066C4F2B13}"/>
     <hyperlink ref="B9" r:id="rId2" xr:uid="{E6FCCBFA-6FF4-472B-9AE6-100B824F01F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1864,7 +1915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203F7812-755D-4EFC-B094-8BF895453DC0}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
@@ -1972,7 +2023,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="75" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G3" s="24" t="s">
         <v>8</v>
@@ -2006,8 +2057,8 @@
       <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="123" t="s">
-        <v>149</v>
+      <c r="F4" s="122" t="s">
+        <v>148</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>8</v>
@@ -2042,7 +2093,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G5" s="31" t="s">
         <v>8</v>
@@ -2077,7 +2128,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>8</v>
@@ -2112,7 +2163,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>8</v>
@@ -2147,7 +2198,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>8</v>
@@ -2181,8 +2232,8 @@
       <c r="E9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="123" t="s">
-        <v>162</v>
+      <c r="F9" s="122" t="s">
+        <v>157</v>
       </c>
       <c r="G9" s="31" t="s">
         <v>8</v>
@@ -2283,7 +2334,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2389,7 +2440,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>8</v>
@@ -2463,7 +2514,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G5" s="46" t="s">
         <v>8</v>
@@ -2503,10 +2554,10 @@
         <v>8</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I6" s="84" t="s">
         <v>8</v>
@@ -2537,13 +2588,13 @@
         <v>8</v>
       </c>
       <c r="F7" s="63" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="H7" s="64" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I7" s="84" t="s">
         <v>8</v>
@@ -2592,7 +2643,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>46</v>
       </c>
@@ -2609,7 +2660,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="G9" s="45" t="s">
         <v>8</v>
@@ -2629,7 +2680,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>48</v>
       </c>
@@ -2645,8 +2696,8 @@
       <c r="E10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="121">
-        <v>44461</v>
+      <c r="F10" s="121" t="s">
+        <v>173</v>
       </c>
       <c r="G10" s="46" t="s">
         <v>8</v>
@@ -2769,9 +2820,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840F4EBE-1122-49FE-9814-7C21AEF7536A}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2867,7 +2918,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
@@ -2916,7 +2967,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="144" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>56</v>
       </c>
@@ -2932,8 +2983,8 @@
       <c r="E5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="122" t="s">
-        <v>160</v>
+      <c r="F5" s="125" t="s">
+        <v>168</v>
       </c>
       <c r="G5" s="63" t="s">
         <v>8</v>
@@ -2971,10 +3022,10 @@
         <v>8</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I6" s="31" t="s">
         <v>8</v>
@@ -3002,14 +3053,14 @@
       <c r="E7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>158</v>
+      <c r="F7" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="H7" s="66" t="s">
+        <v>165</v>
       </c>
       <c r="I7" s="31" t="s">
         <v>8</v>
@@ -3021,7 +3072,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>58</v>
       </c>
@@ -3038,13 +3089,13 @@
         <v>8</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>8</v>
+        <v>164</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>160</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>8</v>
@@ -3073,7 +3124,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G9" s="63" t="s">
         <v>8</v>
@@ -3105,14 +3156,14 @@
       <c r="E10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="123" t="s">
-        <v>148</v>
-      </c>
-      <c r="G10" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="47" t="s">
-        <v>8</v>
+      <c r="F10" s="122" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="H10" s="64" t="s">
+        <v>162</v>
       </c>
       <c r="I10" s="46" t="s">
         <v>8</v>
@@ -3124,7 +3175,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="10" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>62</v>
       </c>
@@ -3140,14 +3191,14 @@
       <c r="E11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="124">
-        <v>34249</v>
-      </c>
-      <c r="G11" s="63" t="s">
-        <v>8</v>
+      <c r="F11" s="123" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>170</v>
       </c>
       <c r="H11" s="64" t="s">
-        <v>8</v>
+        <v>161</v>
       </c>
       <c r="I11" s="46" t="s">
         <v>8</v>
@@ -3176,7 +3227,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G12" s="63" t="s">
         <v>8</v>
@@ -3192,7 +3243,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
@@ -3209,7 +3260,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="53" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="G13" s="63" t="s">
         <v>8</v>
@@ -3227,7 +3278,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>71</v>
       </c>
@@ -3244,7 +3295,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="G14" s="63" t="s">
         <v>8</v>
@@ -3434,7 +3485,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="68" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G4" s="46"/>
       <c r="H4" s="47"/>
@@ -3464,8 +3515,8 @@
       <c r="E5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="126" t="s">
-        <v>161</v>
+      <c r="F5" s="124" t="s">
+        <v>156</v>
       </c>
       <c r="G5" s="46"/>
       <c r="H5" s="47"/>
@@ -3495,8 +3546,8 @@
       <c r="E6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="126" t="s">
-        <v>159</v>
+      <c r="F6" s="124" t="s">
+        <v>155</v>
       </c>
       <c r="G6" s="46"/>
       <c r="H6" s="47"/>
@@ -3516,7 +3567,7 @@
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="125"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="31"/>
       <c r="I7" s="18"/>
       <c r="J7" s="20"/>
